--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H2">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I2">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J2">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>127.890361207483</v>
+        <v>139.3946303333333</v>
       </c>
       <c r="N2">
-        <v>127.890361207483</v>
+        <v>418.183891</v>
       </c>
       <c r="O2">
-        <v>0.9283285166052262</v>
+        <v>0.9207771771472824</v>
       </c>
       <c r="P2">
-        <v>0.9283285166052262</v>
+        <v>0.9207771771472822</v>
       </c>
       <c r="Q2">
-        <v>171.2222213977055</v>
+        <v>202.7059986951693</v>
       </c>
       <c r="R2">
-        <v>171.2222213977055</v>
+        <v>1824.353988256524</v>
       </c>
       <c r="S2">
-        <v>0.01019955951273496</v>
+        <v>0.01052373780948158</v>
       </c>
       <c r="T2">
-        <v>0.01019955951273496</v>
+        <v>0.01052373780948158</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H3">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I3">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J3">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>3.50184202892109</v>
+        <v>0.050239</v>
       </c>
       <c r="N3">
-        <v>3.50184202892109</v>
+        <v>0.150717</v>
       </c>
       <c r="O3">
-        <v>0.02541911513425251</v>
+        <v>0.0003318558576616883</v>
       </c>
       <c r="P3">
-        <v>0.02541911513425251</v>
+        <v>0.0003318558576616882</v>
       </c>
       <c r="Q3">
-        <v>4.688337459638311</v>
+        <v>0.073056950932</v>
       </c>
       <c r="R3">
-        <v>4.688337459638311</v>
+        <v>0.6575125583879999</v>
       </c>
       <c r="S3">
-        <v>0.0002792802040822395</v>
+        <v>3.792843831546912E-06</v>
       </c>
       <c r="T3">
-        <v>0.0002792802040822395</v>
+        <v>3.792843831546911E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H4">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I4">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J4">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.14098823574429</v>
+        <v>4.220699666666667</v>
       </c>
       <c r="N4">
-        <v>5.14098823574429</v>
+        <v>12.662099</v>
       </c>
       <c r="O4">
-        <v>0.03731732350830338</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="P4">
-        <v>0.03731732350830338</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="Q4">
-        <v>6.882859799539792</v>
+        <v>6.137690806870666</v>
       </c>
       <c r="R4">
-        <v>6.882859799539792</v>
+        <v>55.239217261836</v>
       </c>
       <c r="S4">
-        <v>0.0004100060002150975</v>
+        <v>0.0003186459661921768</v>
       </c>
       <c r="T4">
-        <v>0.0004100060002150975</v>
+        <v>0.0003186459661921768</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H5">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I5">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J5">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.806379720358944</v>
+        <v>6.099343</v>
       </c>
       <c r="N5">
-        <v>0.806379720358944</v>
+        <v>18.298029</v>
       </c>
       <c r="O5">
-        <v>0.005853336268296935</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="P5">
-        <v>0.005853336268296935</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="Q5">
-        <v>1.079597599899814</v>
+        <v>8.869591398484001</v>
       </c>
       <c r="R5">
-        <v>1.079597599899814</v>
+        <v>79.826322586356</v>
       </c>
       <c r="S5">
-        <v>6.431069448869759E-05</v>
+        <v>0.0004604760340380747</v>
       </c>
       <c r="T5">
-        <v>6.431069448869759E-05</v>
+        <v>0.0004604760340380746</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H6">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I6">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J6">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.424548857538132</v>
+        <v>0.8278236666666666</v>
       </c>
       <c r="N6">
-        <v>0.424548857538132</v>
+        <v>2.483471</v>
       </c>
       <c r="O6">
-        <v>0.00308170848392097</v>
+        <v>0.005468224544563193</v>
       </c>
       <c r="P6">
-        <v>0.00308170848392097</v>
+        <v>0.005468224544563191</v>
       </c>
       <c r="Q6">
-        <v>0.5683946608111046</v>
+        <v>1.203811242182667</v>
       </c>
       <c r="R6">
-        <v>0.5683946608111046</v>
+        <v>10.834301179644</v>
       </c>
       <c r="S6">
-        <v>3.385877792227587E-05</v>
+        <v>6.249738027678125E-05</v>
       </c>
       <c r="T6">
-        <v>3.385877792227587E-05</v>
+        <v>6.249738027678124E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.3414438221035</v>
+        <v>1.454188</v>
       </c>
       <c r="H7">
-        <v>22.3414438221035</v>
+        <v>4.362564</v>
       </c>
       <c r="I7">
-        <v>0.1833448214142541</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J7">
-        <v>0.1833448214142541</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>127.890361207483</v>
+        <v>0.7952806666666667</v>
       </c>
       <c r="N7">
-        <v>127.890361207483</v>
+        <v>2.385842</v>
       </c>
       <c r="O7">
-        <v>0.9283285166052262</v>
+        <v>0.005253260369800871</v>
       </c>
       <c r="P7">
-        <v>0.9283285166052262</v>
+        <v>0.00525326036980087</v>
       </c>
       <c r="Q7">
-        <v>2857.255320305506</v>
+        <v>1.156487602098667</v>
       </c>
       <c r="R7">
-        <v>2857.255320305506</v>
+        <v>10.408388418888</v>
       </c>
       <c r="S7">
-        <v>0.1702042260907446</v>
+        <v>6.004051376251881E-05</v>
       </c>
       <c r="T7">
-        <v>0.1702042260907446</v>
+        <v>6.00405137625188E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H8">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I8">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J8">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.50184202892109</v>
+        <v>139.3946303333333</v>
       </c>
       <c r="N8">
-        <v>3.50184202892109</v>
+        <v>418.183891</v>
       </c>
       <c r="O8">
-        <v>0.02541911513425251</v>
+        <v>0.9207771771472824</v>
       </c>
       <c r="P8">
-        <v>0.02541911513425251</v>
+        <v>0.9207771771472822</v>
       </c>
       <c r="Q8">
-        <v>78.23620696302147</v>
+        <v>3177.897873144782</v>
       </c>
       <c r="R8">
-        <v>78.23620696302147</v>
+        <v>28601.08085830304</v>
       </c>
       <c r="S8">
-        <v>0.004660463124797889</v>
+        <v>0.1649845797241414</v>
       </c>
       <c r="T8">
-        <v>0.004660463124797889</v>
+        <v>0.1649845797241414</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H9">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I9">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J9">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>5.14098823574429</v>
+        <v>0.050239</v>
       </c>
       <c r="N9">
-        <v>5.14098823574429</v>
+        <v>0.150717</v>
       </c>
       <c r="O9">
-        <v>0.03731732350830338</v>
+        <v>0.0003318558576616883</v>
       </c>
       <c r="P9">
-        <v>0.03731732350830338</v>
+        <v>0.0003318558576616882</v>
       </c>
       <c r="Q9">
-        <v>114.857099858976</v>
+        <v>1.14534118615</v>
       </c>
       <c r="R9">
-        <v>114.857099858976</v>
+        <v>10.30807067535</v>
       </c>
       <c r="S9">
-        <v>0.006841938014287828</v>
+        <v>5.946183350779386E-05</v>
       </c>
       <c r="T9">
-        <v>0.006841938014287828</v>
+        <v>5.946183350779386E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H10">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I10">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J10">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.806379720358944</v>
+        <v>4.220699666666667</v>
       </c>
       <c r="N10">
-        <v>0.806379720358944</v>
+        <v>12.662099</v>
       </c>
       <c r="O10">
-        <v>0.005853336268296935</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="P10">
-        <v>0.005853336268296935</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="Q10">
-        <v>18.01568722168288</v>
+        <v>96.22287789571665</v>
       </c>
       <c r="R10">
-        <v>18.01568722168288</v>
+        <v>866.0059010614499</v>
       </c>
       <c r="S10">
-        <v>0.001073178892788478</v>
+        <v>0.004995532173525237</v>
       </c>
       <c r="T10">
-        <v>0.001073178892788478</v>
+        <v>0.004995532173525237</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H11">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I11">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J11">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.424548857538132</v>
+        <v>6.099343</v>
       </c>
       <c r="N11">
-        <v>0.424548857538132</v>
+        <v>18.298029</v>
       </c>
       <c r="O11">
-        <v>0.00308170848392097</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="P11">
-        <v>0.00308170848392097</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="Q11">
-        <v>9.485034450426397</v>
+        <v>139.05190681255</v>
       </c>
       <c r="R11">
-        <v>9.485034450426397</v>
+        <v>1251.46716131295</v>
       </c>
       <c r="S11">
-        <v>0.0005650152916352818</v>
+        <v>0.007219055275242898</v>
       </c>
       <c r="T11">
-        <v>0.0005650152916352818</v>
+        <v>0.007219055275242897</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.52005426958975</v>
+        <v>22.79785</v>
       </c>
       <c r="H12">
-        <v>9.52005426958975</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I12">
-        <v>0.07812622424093633</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J12">
-        <v>0.07812622424093633</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>127.890361207483</v>
+        <v>0.8278236666666666</v>
       </c>
       <c r="N12">
-        <v>127.890361207483</v>
+        <v>2.483471</v>
       </c>
       <c r="O12">
-        <v>0.9283285166052262</v>
+        <v>0.005468224544563193</v>
       </c>
       <c r="P12">
-        <v>0.9283285166052262</v>
+        <v>0.005468224544563191</v>
       </c>
       <c r="Q12">
-        <v>1217.523179252674</v>
+        <v>18.87259977911666</v>
       </c>
       <c r="R12">
-        <v>1217.523179252674</v>
+        <v>169.85339801205</v>
       </c>
       <c r="S12">
-        <v>0.07252680185755569</v>
+        <v>0.0009797948414806182</v>
       </c>
       <c r="T12">
-        <v>0.07252680185755569</v>
+        <v>0.000979794841480618</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.52005426958975</v>
+        <v>22.79785</v>
       </c>
       <c r="H13">
-        <v>9.52005426958975</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I13">
-        <v>0.07812622424093633</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J13">
-        <v>0.07812622424093633</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.50184202892109</v>
+        <v>0.7952806666666667</v>
       </c>
       <c r="N13">
-        <v>3.50184202892109</v>
+        <v>2.385842</v>
       </c>
       <c r="O13">
-        <v>0.02541911513425251</v>
+        <v>0.005253260369800871</v>
       </c>
       <c r="P13">
-        <v>0.02541911513425251</v>
+        <v>0.00525326036980087</v>
       </c>
       <c r="Q13">
-        <v>33.33772615885906</v>
+        <v>18.13068934656667</v>
       </c>
       <c r="R13">
-        <v>33.33772615885906</v>
+        <v>163.1762041191</v>
       </c>
       <c r="S13">
-        <v>0.00198589948898479</v>
+        <v>0.0009412776248193764</v>
       </c>
       <c r="T13">
-        <v>0.00198589948898479</v>
+        <v>0.0009412776248193762</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H14">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I14">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J14">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.14098823574429</v>
+        <v>139.3946303333333</v>
       </c>
       <c r="N14">
-        <v>5.14098823574429</v>
+        <v>418.183891</v>
       </c>
       <c r="O14">
-        <v>0.03731732350830338</v>
+        <v>0.9207771771472824</v>
       </c>
       <c r="P14">
-        <v>0.03731732350830338</v>
+        <v>0.9207771771472822</v>
       </c>
       <c r="Q14">
-        <v>48.9424870036081</v>
+        <v>1644.000150859688</v>
       </c>
       <c r="R14">
-        <v>48.9424870036081</v>
+        <v>14796.00135773719</v>
       </c>
       <c r="S14">
-        <v>0.002915461584481275</v>
+        <v>0.08535034314605032</v>
       </c>
       <c r="T14">
-        <v>0.002915461584481275</v>
+        <v>0.08535034314605031</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H15">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I15">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J15">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.806379720358944</v>
+        <v>0.050239</v>
       </c>
       <c r="N15">
-        <v>0.806379720358944</v>
+        <v>0.150717</v>
       </c>
       <c r="O15">
-        <v>0.005853336268296935</v>
+        <v>0.0003318558576616883</v>
       </c>
       <c r="P15">
-        <v>0.005853336268296935</v>
+        <v>0.0003318558576616882</v>
       </c>
       <c r="Q15">
-        <v>7.676778699713753</v>
+        <v>0.5925115148376666</v>
       </c>
       <c r="R15">
-        <v>7.676778699713753</v>
+        <v>5.332603633538999</v>
       </c>
       <c r="S15">
-        <v>0.0004572990618545718</v>
+        <v>3.076098325352104E-05</v>
       </c>
       <c r="T15">
-        <v>0.0004572990618545718</v>
+        <v>3.076098325352103E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H16">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I16">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J16">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.424548857538132</v>
+        <v>4.220699666666667</v>
       </c>
       <c r="N16">
-        <v>0.424548857538132</v>
+        <v>12.662099</v>
       </c>
       <c r="O16">
-        <v>0.00308170848392097</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="P16">
-        <v>0.00308170848392097</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="Q16">
-        <v>4.041728163855344</v>
+        <v>49.77832268101477</v>
       </c>
       <c r="R16">
-        <v>4.041728163855344</v>
+        <v>448.004904129133</v>
       </c>
       <c r="S16">
-        <v>0.0002407622480600056</v>
+        <v>0.002584304459970843</v>
       </c>
       <c r="T16">
-        <v>0.0002407622480600056</v>
+        <v>0.002584304459970842</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.1044453012939</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H17">
-        <v>11.1044453012939</v>
+        <v>35.381567</v>
       </c>
       <c r="I17">
-        <v>0.09112851241314242</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J17">
-        <v>0.09112851241314242</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>127.890361207483</v>
+        <v>6.099343</v>
       </c>
       <c r="N17">
-        <v>127.890361207483</v>
+        <v>18.298029</v>
       </c>
       <c r="O17">
-        <v>0.9283285166052262</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="P17">
-        <v>0.9283285166052262</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="Q17">
-        <v>1420.151520591214</v>
+        <v>71.93477100349367</v>
       </c>
       <c r="R17">
-        <v>1420.151520591214</v>
+        <v>647.4129390314429</v>
       </c>
       <c r="S17">
-        <v>0.08459719674893344</v>
+        <v>0.003734584443967451</v>
       </c>
       <c r="T17">
-        <v>0.08459719674893344</v>
+        <v>0.00373458444396745</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.1044453012939</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H18">
-        <v>11.1044453012939</v>
+        <v>35.381567</v>
       </c>
       <c r="I18">
-        <v>0.09112851241314242</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J18">
-        <v>0.09112851241314242</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.50184202892109</v>
+        <v>0.8278236666666666</v>
       </c>
       <c r="N18">
-        <v>3.50184202892109</v>
+        <v>2.483471</v>
       </c>
       <c r="O18">
-        <v>0.02541911513425251</v>
+        <v>0.005468224544563193</v>
       </c>
       <c r="P18">
-        <v>0.02541911513425251</v>
+        <v>0.005468224544563191</v>
       </c>
       <c r="Q18">
-        <v>38.88601326392629</v>
+        <v>9.763232842117443</v>
       </c>
       <c r="R18">
-        <v>38.88601326392629</v>
+        <v>87.86909557905699</v>
       </c>
       <c r="S18">
-        <v>0.002316406149042826</v>
+        <v>0.0005068705576783319</v>
       </c>
       <c r="T18">
-        <v>0.002316406149042826</v>
+        <v>0.0005068705576783318</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.1044453012939</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H19">
-        <v>11.1044453012939</v>
+        <v>35.381567</v>
       </c>
       <c r="I19">
-        <v>0.09112851241314242</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J19">
-        <v>0.09112851241314242</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.14098823574429</v>
+        <v>0.7952806666666667</v>
       </c>
       <c r="N19">
-        <v>5.14098823574429</v>
+        <v>2.385842</v>
       </c>
       <c r="O19">
-        <v>0.03731732350830338</v>
+        <v>0.005253260369800871</v>
       </c>
       <c r="P19">
-        <v>0.03731732350830338</v>
+        <v>0.00525326036980087</v>
       </c>
       <c r="Q19">
-        <v>57.0878226584179</v>
+        <v>9.379425397157112</v>
       </c>
       <c r="R19">
-        <v>57.0878226584179</v>
+        <v>84.414828574414</v>
       </c>
       <c r="S19">
-        <v>0.003400672178551676</v>
+        <v>0.0004869447096714183</v>
       </c>
       <c r="T19">
-        <v>0.003400672178551676</v>
+        <v>0.0004869447096714182</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H20">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I20">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J20">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.806379720358944</v>
+        <v>139.3946303333333</v>
       </c>
       <c r="N20">
-        <v>0.806379720358944</v>
+        <v>418.183891</v>
       </c>
       <c r="O20">
-        <v>0.005853336268296935</v>
+        <v>0.9207771771472824</v>
       </c>
       <c r="P20">
-        <v>0.005853336268296935</v>
+        <v>0.9207771771472822</v>
       </c>
       <c r="Q20">
-        <v>8.954399496798565</v>
+        <v>1653.117349586394</v>
       </c>
       <c r="R20">
-        <v>8.954399496798565</v>
+        <v>14878.05614627754</v>
       </c>
       <c r="S20">
-        <v>0.0005334058267837939</v>
+        <v>0.08582367402710171</v>
       </c>
       <c r="T20">
-        <v>0.0005334058267837939</v>
+        <v>0.08582367402710171</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H21">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I21">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J21">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.424548857538132</v>
+        <v>0.050239</v>
       </c>
       <c r="N21">
-        <v>0.424548857538132</v>
+        <v>0.150717</v>
       </c>
       <c r="O21">
-        <v>0.00308170848392097</v>
+        <v>0.0003318558576616883</v>
       </c>
       <c r="P21">
-        <v>0.00308170848392097</v>
+        <v>0.0003318558576616882</v>
       </c>
       <c r="Q21">
-        <v>4.714379566259003</v>
+        <v>0.5957974301253334</v>
       </c>
       <c r="R21">
-        <v>4.714379566259003</v>
+        <v>5.362176871128</v>
       </c>
       <c r="S21">
-        <v>0.0002808315098306784</v>
+        <v>3.093157569367657E-05</v>
       </c>
       <c r="T21">
-        <v>0.0002808315098306784</v>
+        <v>3.093157569367656E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>70.10231750422879</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H22">
-        <v>70.10231750422879</v>
+        <v>35.577784</v>
       </c>
       <c r="I22">
-        <v>0.5752939239684302</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J22">
-        <v>0.5752939239684302</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>127.890361207483</v>
+        <v>4.220699666666667</v>
       </c>
       <c r="N22">
-        <v>127.890361207483</v>
+        <v>12.662099</v>
       </c>
       <c r="O22">
-        <v>0.9283285166052262</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="P22">
-        <v>0.9283285166052262</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="Q22">
-        <v>8965.410707097479</v>
+        <v>50.05438035651289</v>
       </c>
       <c r="R22">
-        <v>8965.410707097479</v>
+        <v>450.489423208616</v>
       </c>
       <c r="S22">
-        <v>0.5340617550496125</v>
+        <v>0.002598636342677511</v>
       </c>
       <c r="T22">
-        <v>0.5340617550496125</v>
+        <v>0.00259863634267751</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>70.10231750422879</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H23">
-        <v>70.10231750422879</v>
+        <v>35.577784</v>
       </c>
       <c r="I23">
-        <v>0.5752939239684302</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J23">
-        <v>0.5752939239684302</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.50184202892109</v>
+        <v>6.099343</v>
       </c>
       <c r="N23">
-        <v>3.50184202892109</v>
+        <v>18.298029</v>
       </c>
       <c r="O23">
-        <v>0.02541911513425251</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="P23">
-        <v>0.02541911513425251</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="Q23">
-        <v>245.487241761079</v>
+        <v>72.33370259863734</v>
       </c>
       <c r="R23">
-        <v>245.487241761079</v>
+        <v>651.003323387736</v>
       </c>
       <c r="S23">
-        <v>0.01462346248938944</v>
+        <v>0.003755295481323201</v>
       </c>
       <c r="T23">
-        <v>0.01462346248938944</v>
+        <v>0.003755295481323201</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>70.10231750422879</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H24">
-        <v>70.10231750422879</v>
+        <v>35.577784</v>
       </c>
       <c r="I24">
-        <v>0.5752939239684302</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J24">
-        <v>0.5752939239684302</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.14098823574429</v>
+        <v>0.8278236666666666</v>
       </c>
       <c r="N24">
-        <v>5.14098823574429</v>
+        <v>2.483471</v>
       </c>
       <c r="O24">
-        <v>0.03731732350830338</v>
+        <v>0.005468224544563193</v>
       </c>
       <c r="P24">
-        <v>0.03731732350830338</v>
+        <v>0.005468224544563191</v>
       </c>
       <c r="Q24">
-        <v>360.3951895876513</v>
+        <v>9.817377200918223</v>
       </c>
       <c r="R24">
-        <v>360.3951895876513</v>
+        <v>88.356394808264</v>
       </c>
       <c r="S24">
-        <v>0.0214684294730912</v>
+        <v>0.0005096815304149541</v>
       </c>
       <c r="T24">
-        <v>0.0214684294730912</v>
+        <v>0.000509681530414954</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>70.10231750422879</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H25">
-        <v>70.10231750422879</v>
+        <v>35.577784</v>
       </c>
       <c r="I25">
-        <v>0.5752939239684302</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J25">
-        <v>0.5752939239684302</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.806379720358944</v>
+        <v>0.7952806666666667</v>
       </c>
       <c r="N25">
-        <v>0.806379720358944</v>
+        <v>2.385842</v>
       </c>
       <c r="O25">
-        <v>0.005853336268296935</v>
+        <v>0.005253260369800871</v>
       </c>
       <c r="P25">
-        <v>0.005853336268296935</v>
+        <v>0.00525326036980087</v>
       </c>
       <c r="Q25">
-        <v>56.52908718557392</v>
+        <v>9.431441259347558</v>
       </c>
       <c r="R25">
-        <v>56.52908718557392</v>
+        <v>84.88297133412802</v>
       </c>
       <c r="S25">
-        <v>0.003367388790095272</v>
+        <v>0.0004896451788195936</v>
       </c>
       <c r="T25">
-        <v>0.003367388790095272</v>
+        <v>0.0004896451788195936</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H26">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I26">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J26">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.424548857538132</v>
+        <v>139.3946303333333</v>
       </c>
       <c r="N26">
-        <v>0.424548857538132</v>
+        <v>418.183891</v>
       </c>
       <c r="O26">
-        <v>0.00308170848392097</v>
+        <v>0.9207771771472824</v>
       </c>
       <c r="P26">
-        <v>0.00308170848392097</v>
+        <v>0.9207771771472822</v>
       </c>
       <c r="Q26">
-        <v>29.76185880719573</v>
+        <v>9940.160044273405</v>
       </c>
       <c r="R26">
-        <v>29.76185880719573</v>
+        <v>89461.44039846065</v>
       </c>
       <c r="S26">
-        <v>0.001772888166241696</v>
+        <v>0.5160559567234507</v>
       </c>
       <c r="T26">
-        <v>0.001772888166241696</v>
+        <v>0.5160559567234508</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.44770387907695</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H27">
-        <v>7.44770387907695</v>
+        <v>213.928471</v>
       </c>
       <c r="I27">
-        <v>0.06111950277379369</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J27">
-        <v>0.06111950277379369</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>127.890361207483</v>
+        <v>0.050239</v>
       </c>
       <c r="N27">
-        <v>127.890361207483</v>
+        <v>0.150717</v>
       </c>
       <c r="O27">
-        <v>0.9283285166052262</v>
+        <v>0.0003318558576616883</v>
       </c>
       <c r="P27">
-        <v>0.9283285166052262</v>
+        <v>0.0003318558576616882</v>
       </c>
       <c r="Q27">
-        <v>952.4895392615233</v>
+        <v>3.582517484856333</v>
       </c>
       <c r="R27">
-        <v>952.4895392615233</v>
+        <v>32.242657363707</v>
       </c>
       <c r="S27">
-        <v>0.0567389773456449</v>
+        <v>0.0001859909176403171</v>
       </c>
       <c r="T27">
-        <v>0.0567389773456449</v>
+        <v>0.0001859909176403171</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.44770387907695</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H28">
-        <v>7.44770387907695</v>
+        <v>213.928471</v>
       </c>
       <c r="I28">
-        <v>0.06111950277379369</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J28">
-        <v>0.06111950277379369</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.50184202892109</v>
+        <v>4.220699666666667</v>
       </c>
       <c r="N28">
-        <v>3.50184202892109</v>
+        <v>12.662099</v>
       </c>
       <c r="O28">
-        <v>0.02541911513425251</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="P28">
-        <v>0.02541911513425251</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="Q28">
-        <v>26.0806824627103</v>
+        <v>300.9759420800698</v>
       </c>
       <c r="R28">
-        <v>26.0806824627103</v>
+        <v>2708.783478720629</v>
       </c>
       <c r="S28">
-        <v>0.001553603677955327</v>
+        <v>0.0156255459720041</v>
       </c>
       <c r="T28">
-        <v>0.001553603677955327</v>
+        <v>0.0156255459720041</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.44770387907695</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H29">
-        <v>7.44770387907695</v>
+        <v>213.928471</v>
       </c>
       <c r="I29">
-        <v>0.06111950277379369</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J29">
-        <v>0.06111950277379369</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.14098823574429</v>
+        <v>6.099343</v>
       </c>
       <c r="N29">
-        <v>5.14098823574429</v>
+        <v>18.298029</v>
       </c>
       <c r="O29">
-        <v>0.03731732350830338</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="P29">
-        <v>0.03731732350830338</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="Q29">
-        <v>38.28855802564171</v>
+        <v>434.9410406981843</v>
       </c>
       <c r="R29">
-        <v>38.28855802564171</v>
+        <v>3914.469366283659</v>
       </c>
       <c r="S29">
-        <v>0.002280816257676305</v>
+        <v>0.02258051317846782</v>
       </c>
       <c r="T29">
-        <v>0.002280816257676305</v>
+        <v>0.02258051317846782</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.44770387907695</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H30">
-        <v>7.44770387907695</v>
+        <v>213.928471</v>
       </c>
       <c r="I30">
-        <v>0.06111950277379369</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J30">
-        <v>0.06111950277379369</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.806379720358944</v>
+        <v>0.8278236666666666</v>
       </c>
       <c r="N30">
-        <v>0.806379720358944</v>
+        <v>2.483471</v>
       </c>
       <c r="O30">
-        <v>0.005853336268296935</v>
+        <v>0.005468224544563193</v>
       </c>
       <c r="P30">
-        <v>0.005853336268296935</v>
+        <v>0.005468224544563191</v>
       </c>
       <c r="Q30">
-        <v>6.005677371326293</v>
+        <v>59.03168375587121</v>
       </c>
       <c r="R30">
-        <v>6.005677371326293</v>
+        <v>531.2851538028409</v>
       </c>
       <c r="S30">
-        <v>0.0003577530022861217</v>
+        <v>0.003064704381211913</v>
       </c>
       <c r="T30">
-        <v>0.0003577530022861217</v>
+        <v>0.003064704381211913</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.44770387907695</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H31">
-        <v>7.44770387907695</v>
+        <v>213.928471</v>
       </c>
       <c r="I31">
-        <v>0.06111950277379369</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J31">
-        <v>0.06111950277379369</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.424548857538132</v>
+        <v>0.7952806666666667</v>
       </c>
       <c r="N31">
-        <v>0.424548857538132</v>
+        <v>2.385842</v>
       </c>
       <c r="O31">
-        <v>0.00308170848392097</v>
+        <v>0.005253260369800871</v>
       </c>
       <c r="P31">
-        <v>0.00308170848392097</v>
+        <v>0.00525326036980087</v>
       </c>
       <c r="Q31">
-        <v>3.161914173144433</v>
+        <v>56.71105901195356</v>
       </c>
       <c r="R31">
-        <v>3.161914173144433</v>
+        <v>510.399531107582</v>
       </c>
       <c r="S31">
-        <v>0.0001883524902310312</v>
+        <v>0.002944226218175849</v>
       </c>
       <c r="T31">
-        <v>0.0001883524902310312</v>
+        <v>0.002944226218175849</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>8.019912</v>
+      </c>
+      <c r="H32">
+        <v>24.059736</v>
+      </c>
+      <c r="I32">
+        <v>0.06303249815212676</v>
+      </c>
+      <c r="J32">
+        <v>0.06303249815212676</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>139.3946303333333</v>
+      </c>
+      <c r="N32">
+        <v>418.183891</v>
+      </c>
+      <c r="O32">
+        <v>0.9207771771472824</v>
+      </c>
+      <c r="P32">
+        <v>0.9207771771472822</v>
+      </c>
+      <c r="Q32">
+        <v>1117.932668545864</v>
+      </c>
+      <c r="R32">
+        <v>10061.39401691277</v>
+      </c>
+      <c r="S32">
+        <v>0.05803888571705657</v>
+      </c>
+      <c r="T32">
+        <v>0.05803888571705657</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>8.019912</v>
+      </c>
+      <c r="H33">
+        <v>24.059736</v>
+      </c>
+      <c r="I33">
+        <v>0.06303249815212676</v>
+      </c>
+      <c r="J33">
+        <v>0.06303249815212676</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.050239</v>
+      </c>
+      <c r="N33">
+        <v>0.150717</v>
+      </c>
+      <c r="O33">
+        <v>0.0003318558576616883</v>
+      </c>
+      <c r="P33">
+        <v>0.0003318558576616882</v>
+      </c>
+      <c r="Q33">
+        <v>0.402912358968</v>
+      </c>
+      <c r="R33">
+        <v>3.626211230712</v>
+      </c>
+      <c r="S33">
+        <v>2.091770373483281E-05</v>
+      </c>
+      <c r="T33">
+        <v>2.09177037348328E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>8.019912</v>
+      </c>
+      <c r="H34">
+        <v>24.059736</v>
+      </c>
+      <c r="I34">
+        <v>0.06303249815212676</v>
+      </c>
+      <c r="J34">
+        <v>0.06303249815212676</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>4.220699666666667</v>
+      </c>
+      <c r="N34">
+        <v>12.662099</v>
+      </c>
+      <c r="O34">
+        <v>0.02788001170035368</v>
+      </c>
+      <c r="P34">
+        <v>0.02788001170035368</v>
+      </c>
+      <c r="Q34">
+        <v>33.849639905096</v>
+      </c>
+      <c r="R34">
+        <v>304.646759145864</v>
+      </c>
+      <c r="S34">
+        <v>0.001757346785983816</v>
+      </c>
+      <c r="T34">
+        <v>0.001757346785983816</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>8.019912</v>
+      </c>
+      <c r="H35">
+        <v>24.059736</v>
+      </c>
+      <c r="I35">
+        <v>0.06303249815212676</v>
+      </c>
+      <c r="J35">
+        <v>0.06303249815212676</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>6.099343</v>
+      </c>
+      <c r="N35">
+        <v>18.298029</v>
+      </c>
+      <c r="O35">
+        <v>0.04028947038033828</v>
+      </c>
+      <c r="P35">
+        <v>0.04028947038033828</v>
+      </c>
+      <c r="Q35">
+        <v>48.916194117816</v>
+      </c>
+      <c r="R35">
+        <v>440.245747060344</v>
+      </c>
+      <c r="S35">
+        <v>0.002539545967298839</v>
+      </c>
+      <c r="T35">
+        <v>0.002539545967298838</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>8.019912</v>
+      </c>
+      <c r="H36">
+        <v>24.059736</v>
+      </c>
+      <c r="I36">
+        <v>0.06303249815212676</v>
+      </c>
+      <c r="J36">
+        <v>0.06303249815212676</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.8278236666666666</v>
+      </c>
+      <c r="N36">
+        <v>2.483471</v>
+      </c>
+      <c r="O36">
+        <v>0.005468224544563193</v>
+      </c>
+      <c r="P36">
+        <v>0.005468224544563191</v>
+      </c>
+      <c r="Q36">
+        <v>6.639072958183999</v>
+      </c>
+      <c r="R36">
+        <v>59.751656623656</v>
+      </c>
+      <c r="S36">
+        <v>0.0003446758535005937</v>
+      </c>
+      <c r="T36">
+        <v>0.0003446758535005936</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>8.019912</v>
+      </c>
+      <c r="H37">
+        <v>24.059736</v>
+      </c>
+      <c r="I37">
+        <v>0.06303249815212676</v>
+      </c>
+      <c r="J37">
+        <v>0.06303249815212676</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.7952806666666667</v>
+      </c>
+      <c r="N37">
+        <v>2.385842</v>
+      </c>
+      <c r="O37">
+        <v>0.005253260369800871</v>
+      </c>
+      <c r="P37">
+        <v>0.00525326036980087</v>
+      </c>
+      <c r="Q37">
+        <v>6.378080961968</v>
+      </c>
+      <c r="R37">
+        <v>57.40272865771201</v>
+      </c>
+      <c r="S37">
+        <v>0.0003311261245521141</v>
+      </c>
+      <c r="T37">
+        <v>0.0003311261245521141</v>
       </c>
     </row>
   </sheetData>
